--- a/data/trans_bre/IP19C03-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP19C03-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 16,23</t>
+          <t>-10,51; 17,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 6,9</t>
+          <t>-25,95; 6,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-29,07; 12,27</t>
+          <t>-29,62; 12,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,12; 28,94</t>
+          <t>-15,24; 29,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-41,93; 105,47</t>
+          <t>-36,11; 117,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-57,16; 31,44</t>
+          <t>-59,48; 30,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-65,97; 50,57</t>
+          <t>-66,81; 46,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-65,3; 607,33</t>
+          <t>-68,35; 559,92</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 12,26</t>
+          <t>0,48; 12,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 7,67</t>
+          <t>-4,88; 6,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 6,62</t>
+          <t>-4,72; 6,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 5,06</t>
+          <t>-6,2; 4,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 83,99</t>
+          <t>1,16; 84,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,68; 42,23</t>
+          <t>-21,01; 38,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-23,6; 43,97</t>
+          <t>-22,53; 45,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,43; 34,72</t>
+          <t>-30,67; 34,27</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 1,63</t>
+          <t>-16,47; 1,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 15,42</t>
+          <t>-1,04; 15,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 3,04</t>
+          <t>-10,52; 4,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 10,91</t>
+          <t>-4,66; 10,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-73,15; 18,88</t>
+          <t>-74,23; 18,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 366,38</t>
+          <t>-14,93; 340,83</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-72,64; 43,81</t>
+          <t>-68,55; 63,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-28,51; 134,04</t>
+          <t>-32,89; 119,39</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 8,36</t>
+          <t>-1,53; 8,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 6,05</t>
+          <t>-3,63; 6,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 3,82</t>
+          <t>-6,18; 3,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 5,66</t>
+          <t>-3,66; 6,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 56,63</t>
+          <t>-8,36; 55,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,13; 35,37</t>
+          <t>-16,46; 35,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,63; 24,0</t>
+          <t>-28,94; 21,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,72; 41,26</t>
+          <t>-19,29; 44,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C03-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP19C03-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>8,85</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>35,94%</t>
+          <t>58,08%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 17,4</t>
+          <t>-11,84; 17,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,95; 6,57</t>
+          <t>-25,17; 6,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-29,62; 12,74</t>
+          <t>-28,06; 14,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 29,01</t>
+          <t>-10,53; 38,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-36,11; 117,62</t>
+          <t>-41,8; 118,56</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-59,48; 30,34</t>
+          <t>-59,82; 29,22</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-66,81; 46,22</t>
+          <t>-64,11; 60,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-68,35; 559,92</t>
+          <t>-61,1; 952,91</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-2,39%</t>
+          <t>-2,16%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,48; 12,16</t>
+          <t>0,96; 12,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 6,91</t>
+          <t>-4,77; 7,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 6,72</t>
+          <t>-5,13; 6,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 4,85</t>
+          <t>-6,29; 5,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 84,71</t>
+          <t>3,79; 90,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,01; 38,26</t>
+          <t>-19,45; 47,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,53; 45,59</t>
+          <t>-24,14; 40,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-30,67; 34,27</t>
+          <t>-29,73; 39,33</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>27,02%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 1,61</t>
+          <t>-15,64; 1,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 15,51</t>
+          <t>0,1; 15,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,52; 4,27</t>
+          <t>-10,31; 3,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 10,8</t>
+          <t>-5,59; 11,94</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-74,23; 18,64</t>
+          <t>-73,61; 17,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-14,93; 340,83</t>
+          <t>-7,01; 369,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-68,55; 63,38</t>
+          <t>-70,56; 59,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-32,89; 119,39</t>
+          <t>-36,09; 143,2</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>8,18%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 8,23</t>
+          <t>-1,56; 7,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 6,09</t>
+          <t>-3,68; 6,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 3,42</t>
+          <t>-5,63; 3,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 6,0</t>
+          <t>-3,29; 6,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 55,36</t>
+          <t>-8,24; 51,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,46; 35,72</t>
+          <t>-16,24; 36,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,94; 21,65</t>
+          <t>-26,95; 22,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-19,29; 44,95</t>
+          <t>-18,74; 43,57</t>
         </is>
       </c>
     </row>
